--- a/templates/report_valet_sales.xlsx
+++ b/templates/report_valet_sales.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>http://ccs.msk.ru</t>
   </si>
@@ -120,33 +120,6 @@
     <t>${table:order.amount}</t>
   </si>
   <si>
-    <t>{{address}}}</t>
-  </si>
-  <si>
-    <t>{{getecode}}</t>
-  </si>
-  <si>
-    <t>{{comment}}}</t>
-  </si>
-  <si>
-    <t>{{name}}}</t>
-  </si>
-  <si>
-    <t>{{phone}}</t>
-  </si>
-  <si>
-    <t>{{email}}}</t>
-  </si>
-  <si>
-    <t>{{gate}}}</t>
-  </si>
-  <si>
-    <t>{{level}}}</t>
-  </si>
-  <si>
-    <t>{{flat}}}</t>
-  </si>
-  <si>
     <t>Адрес:</t>
   </si>
   <si>
@@ -175,6 +148,42 @@
   </si>
   <si>
     <t>http://valet24.ru</t>
+  </si>
+  <si>
+    <t>${name}</t>
+  </si>
+  <si>
+    <t>${phone}</t>
+  </si>
+  <si>
+    <t>${email}</t>
+  </si>
+  <si>
+    <t>${comment}</t>
+  </si>
+  <si>
+    <t>${address}</t>
+  </si>
+  <si>
+    <t>${gate}</t>
+  </si>
+  <si>
+    <t>${getecode}</t>
+  </si>
+  <si>
+    <t>${level}</t>
+  </si>
+  <si>
+    <t>${flat}</t>
+  </si>
+  <si>
+    <t>Всего позиций:</t>
+  </si>
+  <si>
+    <t>${total_count}</t>
+  </si>
+  <si>
+    <t>${total_amount}</t>
   </si>
 </sst>
 </file>
@@ -375,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -429,6 +438,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -734,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -865,17 +883,17 @@
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -914,17 +932,17 @@
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -963,17 +981,17 @@
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1015,10 +1033,10 @@
       <c r="D8" s="19"/>
       <c r="E8" s="15"/>
       <c r="F8" s="20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -1057,17 +1075,17 @@
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1372,13 +1390,13 @@
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="15"/>
@@ -1419,9 +1437,9 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="5"/>
@@ -1460,9 +1478,9 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="5"/>
@@ -1501,9 +1519,9 @@
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="5"/>
@@ -1542,9 +1560,9 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="5"/>
@@ -1577,15 +1595,23 @@
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
     </row>
-    <row r="21" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="5"/>
@@ -1748,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
